--- a/doc/04_機能一覧_F2.xlsx
+++ b/doc/04_機能一覧_F2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF28FA3-35CE-46AC-9EEC-C8215384D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29475DE-3B32-462F-ACA6-9D0BAF2C2040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,24 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -287,22 +299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>制限日時（締め切り）を入力する</t>
-    <rPh sb="0" eb="4">
-      <t>セイゲンニチジ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力機能</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -313,85 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスクの入力</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考の入力</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク内容の入力</t>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダー入力</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダーの入力</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスクの内容を入力する（文字数50文字）</t>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考に備考の内容を入力する（文字数50文字）</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスク状態操作</t>
     <rPh sb="3" eb="5">
       <t>ジョウタイ</t>
@@ -408,25 +325,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレンダーで選択した日付が、YYYY/MM/DD hh:mmで表示され、DBにString型で保存される</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -615,15 +513,6 @@
     <t>WK012</t>
   </si>
   <si>
-    <t>WK013</t>
-  </si>
-  <si>
-    <t>WK014</t>
-  </si>
-  <si>
-    <t>WK015</t>
-  </si>
-  <si>
     <t>ボタンで選択した状態がタスクに反映される
 着手ボタンと完了ボタンはこっち。</t>
     <rPh sb="4" eb="6">
@@ -675,16 +564,90 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Java,CSS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            川田怜奈</t>
-    <rPh sb="60" eb="62">
+    <t>備考(エラー)</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェック、タスク名と制限日時が入力されていない場合エラーを出す</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙見澤響</t>
+    <rPh sb="0" eb="4">
+      <t>タカミザワヒビキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川田怜奈</t>
+    <rPh sb="0" eb="2">
       <t>カワダ</t>
     </rPh>
-    <rPh sb="62" eb="64">
+    <rPh sb="2" eb="4">
       <t>レナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限日時（締め切り）を入力する
+カレンダーで選択した日付がYYYY/MM/DD hh:mm で表示され、DBにString型で保存される</t>
+    <rPh sb="0" eb="4">
+      <t>セイゲンニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -733,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -780,13 +743,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,8 +796,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I39"/>
+  <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1178,7 +1175,7 @@
     <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1189,11 +1186,11 @@
         <v>2</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1203,31 +1200,37 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="15">
         <v>44718</v>
       </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="2:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="H5" s="15">
+        <v>44719</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1252,8 +1255,12 @@
       <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1276,8 +1283,12 @@
       <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -1298,8 +1309,10 @@
       <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -1319,13 +1332,15 @@
         <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="2:11" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -1345,13 +1360,15 @@
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -1376,8 +1393,10 @@
       <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1385,77 +1404,85 @@
         <v>17</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -1463,77 +1490,83 @@
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <v>10</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>60</v>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>60</v>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <v>12</v>
       </c>
@@ -1541,103 +1574,69 @@
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>16</v>
       </c>
@@ -1648,10 +1647,12 @@
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1660,10 +1661,12 @@
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1672,10 +1675,12 @@
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1684,10 +1689,12 @@
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1696,10 +1703,12 @@
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1708,10 +1717,12 @@
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1720,10 +1731,12 @@
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1732,10 +1745,12 @@
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1744,10 +1759,12 @@
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1756,10 +1773,12 @@
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1768,10 +1787,12 @@
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1780,10 +1801,12 @@
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1792,11 +1815,10 @@
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B36" s="2">
-        <v>27</v>
-      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1804,46 +1826,45 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="2">
-        <v>28</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="2">
-        <v>29</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="2"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="34">
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_機能一覧_F2.xlsx
+++ b/doc/04_機能一覧_F2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29475DE-3B32-462F-ACA6-9D0BAF2C2040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B386E6-6D74-442A-AA90-94B2EF80025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,38 +571,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力チェック</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力チェック、タスク名と制限日時が入力されていない場合エラーを出す</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>髙見澤響</t>
     <rPh sb="0" eb="4">
       <t>タカミザワヒビキ</t>
@@ -648,6 +616,67 @@
     </rPh>
     <rPh sb="63" eb="65">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェック、タスク名と制限日時が入力されていない場合エラーを出す
+エラー文：「タスク名と締め切りを入力してください」</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力チェック 空欄の場合：エラー　
+エラー文：「IDとパスワードを入力してください」</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -762,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,14 +822,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -808,17 +849,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1173,6 +1208,7 @@
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="33.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
@@ -1185,10 +1221,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="10"/>
+      <c r="H2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
@@ -1210,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I4" s="16"/>
     </row>
@@ -1227,8 +1263,8 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -1255,12 +1291,12 @@
       <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -1283,10 +1319,10 @@
       <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="12"/>
+      <c r="J8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
@@ -1309,8 +1345,8 @@
       <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
@@ -1337,8 +1373,8 @@
       <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
@@ -1360,13 +1396,13 @@
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
@@ -1393,10 +1429,10 @@
       <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -1421,10 +1457,10 @@
       <c r="I13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="12"/>
+      <c r="J13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
@@ -1451,8 +1487,8 @@
       <c r="I14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
@@ -1479,8 +1515,8 @@
       <c r="I15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -1507,8 +1543,8 @@
       <c r="I16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
@@ -1535,8 +1571,8 @@
       <c r="I17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
@@ -1563,8 +1599,8 @@
       <c r="I18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
@@ -1591,8 +1627,8 @@
       <c r="I19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
@@ -1605,8 +1641,8 @@
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
@@ -1619,8 +1655,8 @@
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
@@ -1633,8 +1669,8 @@
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
@@ -1647,8 +1683,8 @@
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
@@ -1661,8 +1697,8 @@
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
@@ -1675,8 +1711,8 @@
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
@@ -1689,8 +1725,8 @@
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
@@ -1703,8 +1739,8 @@
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
@@ -1717,8 +1753,8 @@
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
@@ -1731,8 +1767,8 @@
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
@@ -1745,8 +1781,8 @@
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
@@ -1759,8 +1795,8 @@
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
@@ -1773,8 +1809,8 @@
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
@@ -1787,8 +1823,8 @@
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
@@ -1801,8 +1837,8 @@
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
@@ -1815,8 +1851,8 @@
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C36" s="2"/>
@@ -1826,31 +1862,17 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
@@ -1859,12 +1881,26 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_機能一覧_F2.xlsx
+++ b/doc/04_機能一覧_F2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B386E6-6D74-442A-AA90-94B2EF80025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA8C534-CA26-4DA4-9F82-24A3749F3681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -588,38 +588,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>制限日時（締め切り）を入力する
-カレンダーで選択した日付がYYYY/MM/DD hh:mm で表示され、DBにString型で保存される</t>
-    <rPh sb="0" eb="4">
-      <t>セイゲンニチジ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力チェック、タスク名と制限日時が入力されていない場合エラーを出す
 エラー文：「タスク名と締め切りを入力してください」</t>
     <rPh sb="0" eb="2">
@@ -677,6 +645,48 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限日時（締め切り）を入力する
+カレンダーで選択した日付がYYYY/MM/DD hh:mm で表示され、DBにDataTime型で保存される</t>
+    <rPh sb="0" eb="4">
+      <t>セイゲンニチジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度低め</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -791,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,32 +838,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,7 +1209,7 @@
   <dimension ref="B2:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:K11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1221,10 +1234,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
@@ -1236,28 +1249,28 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <v>44718</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <v>44719</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
@@ -1319,10 +1332,10 @@
       <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="19"/>
+      <c r="J8" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
@@ -1345,8 +1358,8 @@
       <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
@@ -1373,8 +1386,8 @@
       <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="2:11" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
@@ -1396,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
@@ -1429,8 +1442,8 @@
       <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="13"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
@@ -1457,10 +1470,10 @@
       <c r="I13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="19"/>
+      <c r="J13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
@@ -1487,8 +1500,8 @@
       <c r="I14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="13"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
@@ -1515,8 +1528,8 @@
       <c r="I15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -1543,8 +1556,8 @@
       <c r="I16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
@@ -1571,8 +1584,8 @@
       <c r="I17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
@@ -1599,8 +1612,10 @@
       <c r="I18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
+      <c r="J18" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
@@ -1627,8 +1642,10 @@
       <c r="I19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
+      <c r="J19" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
@@ -1641,8 +1658,8 @@
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
@@ -1655,8 +1672,8 @@
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
@@ -1669,8 +1686,8 @@
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="13"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
@@ -1683,8 +1700,8 @@
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="13"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
@@ -1697,8 +1714,8 @@
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="13"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
@@ -1711,8 +1728,8 @@
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="13"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
@@ -1725,8 +1742,8 @@
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="13"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
@@ -1739,8 +1756,8 @@
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="13"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
@@ -1753,8 +1770,8 @@
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="13"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
@@ -1767,8 +1784,8 @@
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="13"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
@@ -1781,8 +1798,8 @@
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="13"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
@@ -1795,8 +1812,8 @@
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="13"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
@@ -1809,8 +1826,8 @@
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="13"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
@@ -1823,8 +1840,8 @@
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="13"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
@@ -1837,8 +1854,8 @@
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
@@ -1851,8 +1868,8 @@
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="13"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C36" s="2"/>
@@ -1862,17 +1879,31 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="13"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
@@ -1881,26 +1912,12 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/04_機能一覧_F2.xlsx
+++ b/doc/04_機能一覧_F2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo7\F-2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA8C534-CA26-4DA4-9F82-24A3749F3681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41DDC40-B93F-4B6A-A736-A89A0C4C3709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -571,13 +571,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>髙見澤響</t>
-    <rPh sb="0" eb="4">
-      <t>タカミザワヒビキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>川田怜奈</t>
     <rPh sb="0" eb="2">
       <t>カワダ</t>
@@ -681,12 +674,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>優先度低め</t>
+    <t>未完成</t>
+    <rPh sb="0" eb="3">
+      <t>ミカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度低め、未完成</t>
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>ヒク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミカンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -838,6 +841,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -847,25 +865,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1234,10 +1237,10 @@
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="H2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E3" s="4" t="s">
@@ -1249,28 +1252,28 @@
       <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="18">
         <v>44718</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="13">
-        <v>44719</v>
-      </c>
-      <c r="I5" s="14"/>
+      <c r="H5" s="18">
+        <v>44739</v>
+      </c>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="2:11" ht="21" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
@@ -1304,10 +1307,10 @@
       <c r="I7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="2:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
@@ -1332,10 +1335,10 @@
       <c r="I8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="16"/>
+      <c r="J8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
@@ -1358,8 +1361,10 @@
       <c r="I9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
+      <c r="J9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
@@ -1386,8 +1391,8 @@
       <c r="I10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="20"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" ht="54" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
@@ -1409,13 +1414,13 @@
         <v>23</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
@@ -1442,8 +1447,8 @@
       <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="20"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
@@ -1470,10 +1475,10 @@
       <c r="I13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="16"/>
+      <c r="J13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
@@ -1500,8 +1505,8 @@
       <c r="I14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
@@ -1528,8 +1533,8 @@
       <c r="I15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
@@ -1556,8 +1561,8 @@
       <c r="I16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:11" ht="27" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
@@ -1584,8 +1589,8 @@
       <c r="I17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
@@ -1612,10 +1617,10 @@
       <c r="I18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="16"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
@@ -1642,10 +1647,10 @@
       <c r="I19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K19" s="16"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
@@ -1658,8 +1663,8 @@
       <c r="G20" s="2"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
@@ -1672,8 +1677,8 @@
       <c r="G21" s="2"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
@@ -1686,8 +1691,8 @@
       <c r="G22" s="2"/>
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
@@ -1700,8 +1705,8 @@
       <c r="G23" s="2"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
@@ -1714,8 +1719,8 @@
       <c r="G24" s="2"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
@@ -1728,8 +1733,8 @@
       <c r="G25" s="2"/>
       <c r="H25" s="3"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
@@ -1742,8 +1747,8 @@
       <c r="G26" s="2"/>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
@@ -1756,8 +1761,8 @@
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
@@ -1770,8 +1775,8 @@
       <c r="G28" s="2"/>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="20"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
@@ -1784,8 +1789,8 @@
       <c r="G29" s="2"/>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="20"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
@@ -1798,8 +1803,8 @@
       <c r="G30" s="2"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="20"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
@@ -1812,8 +1817,8 @@
       <c r="G31" s="2"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
@@ -1826,8 +1831,8 @@
       <c r="G32" s="2"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="20"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
@@ -1840,8 +1845,8 @@
       <c r="G33" s="2"/>
       <c r="H33" s="3"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="20"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
@@ -1854,8 +1859,8 @@
       <c r="G34" s="2"/>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="20"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
@@ -1868,8 +1873,8 @@
       <c r="G35" s="2"/>
       <c r="H35" s="3"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C36" s="2"/>
@@ -1879,31 +1884,17 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="20"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J7:K7"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
@@ -1912,12 +1903,26 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
